--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,58 +40,64 @@
     <t>name</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
     <t>wrong</t>
   </si>
   <si>
     <t>fucking</t>
   </si>
   <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>disturbing</t>
+    <t>fucked</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>seriously</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
+    <t>dark</t>
+  </si>
+  <si>
     <t>behind</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>seriously</t>
+    <t>black</t>
   </si>
   <si>
     <t>fake</t>
@@ -106,69 +112,66 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
+    <t>better</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>important</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>wow</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>social</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>right</t>
+    <t>really</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
@@ -178,25 +181,25 @@
     <t>twitter</t>
   </si>
   <si>
+    <t>documentary</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
     <t>watching</t>
   </si>
   <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
     <t>…</t>
   </si>
   <si>
-    <t>dilemma</t>
-  </si>
-  <si>
     <t>’</t>
-  </si>
-  <si>
-    <t>watch</t>
   </si>
   <si>
     <t>positive</t>
@@ -557,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,10 +568,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,13 +629,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,10 +647,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -676,13 +679,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9696969696969697</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C4">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,19 +697,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="L4">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -718,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -726,13 +729,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9615384615384616</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L5">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +779,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,19 +797,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>0.7719298245614035</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -818,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,49 +829,49 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8235294117647058</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C7">
+        <v>57</v>
+      </c>
+      <c r="D7">
+        <v>57</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7">
+        <v>0.7543859649122807</v>
+      </c>
+      <c r="L7">
+        <v>43</v>
+      </c>
+      <c r="M7">
+        <v>43</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>14</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="L7">
-        <v>13</v>
-      </c>
-      <c r="M7">
-        <v>13</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8125</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,16 +900,16 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>0.7066666666666667</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L8">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +929,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.8125</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.6896551724137931</v>
+        <v>0.65</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +979,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.631578947368421</v>
+        <v>0.64</v>
       </c>
       <c r="L10">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="M10">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1018,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1026,13 +1029,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7318840579710145</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C11">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1044,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.6296296296296297</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,13 +1079,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.725</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1094,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.6166666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1118,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1126,13 +1129,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6956521739130435</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1144,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.5151515151515151</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L13">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M13">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1168,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1176,13 +1179,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6808510638297872</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C14">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1194,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.5</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L14">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M14">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1218,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1226,13 +1229,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6285714285714286</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1244,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.4444444444444444</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="L15">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M15">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1268,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1276,13 +1279,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1294,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.3442622950819672</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1318,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1326,13 +1329,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5384615384615384</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1344,31 +1347,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="L17">
+        <v>22</v>
+      </c>
+      <c r="M17">
+        <v>22</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>43</v>
-      </c>
-      <c r="K17">
-        <v>0.3309024612579763</v>
-      </c>
-      <c r="L17">
-        <v>363</v>
-      </c>
-      <c r="M17">
-        <v>364</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>734</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1376,13 +1379,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5384615384615384</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1394,19 +1397,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.3076923076923077</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1418,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1426,13 +1429,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1444,19 +1447,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.3043478260869565</v>
+        <v>0.3069216757741348</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>337</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>337</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1468,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>32</v>
+        <v>761</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1476,49 +1479,49 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4642857142857143</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>13</v>
       </c>
-      <c r="D20">
-        <v>13</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
+      <c r="J20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20">
+        <v>0.2459016393442623</v>
+      </c>
+      <c r="L20">
         <v>15</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="M20">
+        <v>15</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>46</v>
-      </c>
-      <c r="K20">
-        <v>0.2926829268292683</v>
-      </c>
-      <c r="L20">
-        <v>12</v>
-      </c>
-      <c r="M20">
-        <v>12</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1526,13 +1529,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2564102564102564</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1544,19 +1547,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>0.2602739726027397</v>
+        <v>0.2328767123287671</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1568,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1576,64 +1579,88 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.06206896551724138</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>272</v>
+        <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>0.2592592592592592</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22">
+        <v>20</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>56</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23">
+        <v>0.1971830985915493</v>
+      </c>
+      <c r="L23">
         <v>14</v>
       </c>
-      <c r="M22">
+      <c r="M23">
         <v>14</v>
       </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23">
-        <v>0.2535211267605634</v>
-      </c>
-      <c r="L23">
-        <v>18</v>
-      </c>
-      <c r="M23">
-        <v>18</v>
-      </c>
       <c r="N23">
         <v>1</v>
       </c>
@@ -1644,21 +1671,45 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.05723905723905724</v>
+      </c>
+      <c r="C24">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <v>0.11</v>
+      </c>
+      <c r="F24">
+        <v>0.89</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>280</v>
+      </c>
       <c r="J24" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K24">
-        <v>0.2421052631578947</v>
+        <v>0.1411764705882353</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1670,21 +1721,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K25">
-        <v>0.1764705882352941</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1696,21 +1747,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>70</v>
+        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K26">
-        <v>0.112962962962963</v>
+        <v>0.1094890510948905</v>
       </c>
       <c r="L26">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="M26">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1722,21 +1773,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>479</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K27">
-        <v>0.1021897810218978</v>
+        <v>0.1024734982332156</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1748,47 +1799,47 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>123</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K28">
-        <v>0.09789156626506024</v>
+        <v>0.09049773755656108</v>
       </c>
       <c r="L28">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M28">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K29">
-        <v>0.09540636042402827</v>
+        <v>0.08504398826979472</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1800,47 +1851,47 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>256</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K30">
-        <v>0.06744868035190615</v>
+        <v>0.07643312101910828</v>
       </c>
       <c r="L30">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M30">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>318</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K31">
-        <v>0.06048387096774194</v>
+        <v>0.0762987012987013</v>
       </c>
       <c r="L31">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="M31">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1852,21 +1903,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>1631</v>
+        <v>569</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K32">
-        <v>0.06031746031746032</v>
+        <v>0.06105990783410138</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1878,59 +1929,33 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>296</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K33">
-        <v>0.05505761843790013</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="L33">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M33">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K34">
-        <v>0.04545454545454546</v>
-      </c>
-      <c r="L34">
-        <v>28</v>
-      </c>
-      <c r="M34">
-        <v>28</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>588</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>
